--- a/students.xlsx
+++ b/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyulee/Library/CloudStorage/GoogleDrive-kwooler@gmail.com/My Drive/LPC/LPC-CSDpet/CS7-template/CS7L96/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E61860A-578C-4B42-BDC8-C44B09B761A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9B58F8-F0AE-A747-9629-D2D200F24403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{17AA2FF9-0B44-8848-BFD3-A023C2D0F34C}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>2023-0003</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -257,7 +257,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EC97AEF-4809-534B-9501-718D3DBD3A37}" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:E5" xr:uid="{8EC97AEF-4809-534B-9501-718D3DBD3A37}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{61027FD1-F7E0-3349-AEA0-2C378AB4AAD7}" name="name" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{61027FD1-F7E0-3349-AEA0-2C378AB4AAD7}" name="Name" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{01D25A2F-D7BA-1244-97DE-A43A50D45944}" name="ID" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{4D4AD0A7-F1E3-9D46-9151-ABF342B0E02C}" name="Math" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{F47FDF89-97F1-E54D-9213-7E8C0E11F2DE}" name="English" dataDxfId="3"/>
@@ -566,9 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAD7EC9-9DC9-E448-8748-73FAF0368AA0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -577,27 +575,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -611,10 +609,10 @@
     </row>
     <row r="3" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -628,10 +626,10 @@
     </row>
     <row r="4" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>100</v>
@@ -645,10 +643,10 @@
     </row>
     <row r="5" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>100</v>
